--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9295_Arrays_add_withNull.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9295_Arrays_add_withNull.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C0681B-B66E-46EA-872C-B389E2E8D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="25875" windowHeight="10800"/>
+    <workbookView xWindow="12600" yWindow="4120" windowWidth="22590" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +51,6 @@
     <t>Spreadsheet SpreadsheetResult mySpr(Integer[] a )</t>
   </si>
   <si>
-    <t>=add(a,null)</t>
-  </si>
-  <si>
     <t>Test mySpr mySprTest</t>
   </si>
   <si>
@@ -64,12 +67,15 @@
   </si>
   <si>
     <t>_res_.$Step2</t>
+  </si>
+  <si>
+    <t>=add(a, new Integer[]{null})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -131,7 +137,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -140,14 +146,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,9 +229,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +281,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,57 +473,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>6</v>
       </c>
@@ -488,34 +531,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22">
         <v>1</v>
       </c>
@@ -532,24 +575,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
